--- a/biology/Médecine/1830_en_santé_et_médecine/1830_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1830_en_santé_et_médecine/1830_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1830_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1830_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1830 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1830_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1830_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le médecin allemand Bernhard Heine présente l'ostéotome, un instrument médical pour scier les os[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le médecin allemand Bernhard Heine présente l'ostéotome, un instrument médical pour scier les os.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1830_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1830_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>5 mars : Étienne-Jules Marey (mort en 1904), médecin et physiologiste français.
-30 mars : Ernest Lecorché (mort en 1904), médecin français[2],[3].
+30 mars : Ernest Lecorché (mort en 1904), médecin français,.
 2 avril : Henri-Ferdinand Dolbeau (†1877), chirurgien.
 22 juillet : François Césaire de Mahy (mort en 1906), médecin et homme politique.
 4 novembre : Paul Topinard (mort en 1911), médecin et anthropologue français.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1830_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1830_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2 mars : Samuel Thomas von Sömmering (né en 1755), médecin, anatomiste, anthropologue, paléontologue et inventeur allemand[4].
-21 avril : Jean-Joseph Sue (né en 1760), médecin et chirurgien français, médecin de Joséphine de Beauharnais, de Joseph Fouché puis de Louis XVIII, père d'Eugène Sue[5].
-24 juin :  François Blanchet (né en 1776), médecin, propriétaire de biens seigneuriaux et homme politique du Bas-Canada[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 mars : Samuel Thomas von Sömmering (né en 1755), médecin, anatomiste, anthropologue, paléontologue et inventeur allemand.
+21 avril : Jean-Joseph Sue (né en 1760), médecin et chirurgien français, médecin de Joséphine de Beauharnais, de Joseph Fouché puis de Louis XVIII, père d'Eugène Sue.
+24 juin :  François Blanchet (né en 1776), médecin, propriétaire de biens seigneuriaux et homme politique du Bas-Canada.</t>
         </is>
       </c>
     </row>
